--- a/StockMarket_log.xlsx
+++ b/StockMarket_log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1143,6 +1143,40 @@
         </is>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-05-15 15:09:03</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Reliance Industries Limited</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>RELIANCE.NS</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>1453.699951171875</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1453.699951171875</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1453.699951171875</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1453.699951171875</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
